--- a/media/temp/1/otd_rep_5_1.xlsx
+++ b/media/temp/1/otd_rep_5_1.xlsx
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C11" s="24" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D11" s="24" t="n"/>
       <c r="E11" s="24" t="n"/>
@@ -868,22 +868,22 @@
         <v>8</v>
       </c>
       <c r="I11" s="24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="24" t="n">
         <v>49</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="24" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M11" s="24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="24" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="23.85" customHeight="1" s="14">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="C12" s="24" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" s="24" t="n"/>
       <c r="E12" s="24" t="n"/>
@@ -909,22 +909,22 @@
         <v>1</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="24" t="n">
         <v>3</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="14">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B16" s="26" t="n"/>
       <c r="C16" s="24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="24" t="n"/>
       <c r="E16" s="24" t="n"/>
@@ -1026,16 +1026,16 @@
         <v>2</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="24" t="n">
         <v>5</v>
       </c>
       <c r="N16" s="24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="14">
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="C12" s="24" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" s="24" t="n">
-        <v>11.76</v>
+        <v>6.98</v>
       </c>
       <c r="E12" s="24" t="n"/>
       <c r="F12" s="24" t="n"/>
@@ -1578,12 +1578,8 @@
       <c r="L12" s="24" t="n"/>
       <c r="M12" s="24" t="n"/>
       <c r="N12" s="24" t="n"/>
-      <c r="O12" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="24" t="n">
-        <v>11.76</v>
-      </c>
+      <c r="O12" s="24" t="n"/>
+      <c r="P12" s="24" t="n"/>
       <c r="Q12" s="24" t="n">
         <v>7</v>
       </c>
@@ -1591,28 +1587,20 @@
         <v>14.29</v>
       </c>
       <c r="S12" s="24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12" s="24" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="U12" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="V12" s="24" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="W12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="24" t="n">
-        <v>3.03</v>
-      </c>
+        <v>6.45</v>
+      </c>
+      <c r="U12" s="24" t="n"/>
+      <c r="V12" s="24" t="n"/>
+      <c r="W12" s="24" t="n"/>
+      <c r="X12" s="24" t="n"/>
       <c r="Y12" s="24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z12" s="24" t="n">
-        <v>14.56</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="13" ht="35.05" customHeight="1" s="14">
@@ -1627,10 +1615,10 @@
         </is>
       </c>
       <c r="C13" s="24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>57.14</v>
+        <v>68.42</v>
       </c>
       <c r="E13" s="24" t="n"/>
       <c r="F13" s="24" t="n"/>
@@ -1646,8 +1634,12 @@
       <c r="N13" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="24" t="n"/>
+      <c r="O13" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="24" t="n">
+        <v>66.67</v>
+      </c>
       <c r="Q13" s="24" t="n">
         <v>2</v>
       </c>
@@ -1655,28 +1647,28 @@
         <v>66.67</v>
       </c>
       <c r="S13" s="24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" s="24" t="n">
-        <v>50</v>
+        <v>55.56</v>
       </c>
       <c r="U13" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" s="24" t="n">
         <v>100</v>
       </c>
       <c r="W13" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="24" t="n">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="Y13" s="24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z13" s="24" t="n">
-        <v>58.33</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="14">
@@ -1796,10 +1788,10 @@
       </c>
       <c r="B17" s="26" t="n"/>
       <c r="C17" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>9.09</v>
+        <v>23.08</v>
       </c>
       <c r="E17" s="24" t="n"/>
       <c r="F17" s="24" t="n"/>
@@ -1819,17 +1811,25 @@
       </c>
       <c r="Q17" s="24" t="n"/>
       <c r="R17" s="24" t="n"/>
-      <c r="S17" s="24" t="n"/>
-      <c r="T17" s="24" t="n"/>
-      <c r="U17" s="24" t="n"/>
-      <c r="V17" s="24" t="n"/>
+      <c r="S17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="U17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="24" t="n">
+        <v>33.33</v>
+      </c>
       <c r="W17" s="24" t="n"/>
       <c r="X17" s="24" t="n"/>
       <c r="Y17" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="24" t="n">
-        <v>16.67</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="14">
@@ -3241,31 +3241,31 @@
         </is>
       </c>
       <c r="B7" s="18" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C7" s="18" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D7" s="18" t="n"/>
       <c r="E7" s="18" t="n">
-        <v>2000</v>
+        <v>1859</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>2000</v>
+        <v>1859</v>
       </c>
       <c r="G7" s="18" t="n"/>
       <c r="H7" s="18" t="n">
-        <v>14.71</v>
+        <v>14.41</v>
       </c>
       <c r="I7" s="18" t="n">
-        <v>14.71</v>
+        <v>14.41</v>
       </c>
       <c r="J7" s="18" t="n"/>
       <c r="K7" s="18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L7" s="18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M7" s="18" t="n"/>
     </row>
@@ -3307,37 +3307,37 @@
         </is>
       </c>
       <c r="B9" s="18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>511</v>
+        <v>630</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>465</v>
+        <v>584</v>
       </c>
       <c r="G9" s="18" t="n">
         <v>46</v>
       </c>
       <c r="H9" s="18" t="n">
-        <v>36.5</v>
+        <v>33.16</v>
       </c>
       <c r="I9" s="18" t="n">
-        <v>35.77</v>
+        <v>32.44</v>
       </c>
       <c r="J9" s="18" t="n">
         <v>46</v>
       </c>
       <c r="K9" s="18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L9" s="18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M9" s="18" t="n"/>
     </row>
@@ -3348,31 +3348,31 @@
         </is>
       </c>
       <c r="B10" s="18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="18" t="n"/>
       <c r="E10" s="18" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G10" s="18" t="n"/>
       <c r="H10" s="18" t="n">
-        <v>19.6</v>
+        <v>17.14</v>
       </c>
       <c r="I10" s="18" t="n">
-        <v>19.6</v>
+        <v>17.14</v>
       </c>
       <c r="J10" s="18" t="n"/>
       <c r="K10" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="18" t="n"/>
     </row>
